--- a/csv/model/market share limits/formula_market share limits_MB.xlsx
+++ b/csv/model/market share limits/formula_market share limits_MB.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\model\market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1383FB-3AE6-4931-B041-5EDE87AE0ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C86716-C3F1-4215-BFC9-34231D3007F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8727CE61-29CA-4C19-9C08-307C81C31EEA}"/>
+    <workbookView xWindow="33675" yWindow="3075" windowWidth="17280" windowHeight="8475" xr2:uid="{0EE6BCFE-FF7C-4CE4-AB69-FBD2B1937C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="126">
+  <si>
+    <t>CIMS.CAN.MB.Natural Gas.Production.Supply.CCS</t>
+  </si>
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -80,157 +83,151 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Petroleum Crude.Steam</t>
+    <t>CIMS.CAN.MB.Mining.Final Product.Metal Underground.Size Reduced Product.Raw Product.Transportation</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>Petroleum Crude</t>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Diesel truck</t>
+  </si>
+  <si>
+    <t>Market share new_min</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Final Product.Metal Underground.Tailing Disposal</t>
+  </si>
+  <si>
+    <t>Tailing Disposal</t>
+  </si>
+  <si>
+    <t>Underground tailings disposal</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Ventilation</t>
+  </si>
+  <si>
+    <t>Ventilation</t>
+  </si>
+  <si>
+    <t>High Eff backward inclined fan</t>
+  </si>
+  <si>
+    <t>Market share new_max</t>
+  </si>
+  <si>
+    <t>High Eff airfoil fan</t>
+  </si>
+  <si>
+    <t>High Eff vane axial tube axial fan</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Conveyance</t>
+  </si>
+  <si>
+    <t>Conveyance</t>
+  </si>
+  <si>
+    <t>High Eff belt conveyor</t>
+  </si>
+  <si>
+    <t>High Eff screw conveyor</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Compression.Small</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>High Eff centrifugal compressor</t>
+  </si>
+  <si>
+    <t>High Eff reciprocating compressor</t>
+  </si>
+  <si>
+    <t>High Eff rotary compressor</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Compression.Large</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Pumping.General.Small</t>
+  </si>
+  <si>
+    <t>High Eff centrifugal pump variable speed</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Pumping.General.Large</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Pumping.Slurry Stock.Small</t>
+  </si>
+  <si>
+    <t>Eff rotary pump variable speed</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Pumping.Slurry Stock.Large</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Pumping.Precision.Small</t>
+  </si>
+  <si>
+    <t>Eff reciprocating pump variable speed</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Pumping.Precision.Large</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Machine Drive.Size 5</t>
+  </si>
+  <si>
+    <t>Size 5</t>
+  </si>
+  <si>
+    <t>Synchronous AC motor 201 500 hp</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Mining.Machine Drive.Size 6</t>
+  </si>
+  <si>
+    <t>Size 6</t>
+  </si>
+  <si>
+    <t>DC motor 500 hp</t>
+  </si>
+  <si>
+    <t>DC solid state motor 500 hp</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.MB.Ethanol.Steam</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
   </si>
   <si>
     <t>Steam</t>
   </si>
   <si>
+    <t>Boilers Coal CCS</t>
+  </si>
+  <si>
+    <t>Boilers NG IA CCS</t>
+  </si>
+  <si>
     <t>BPST NG 30 MW CCS</t>
-  </si>
-  <si>
-    <t>Market share new_max</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Final Product.Metal Underground.Size Reduced Product.Raw Product.Transportation</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Diesel truck</t>
-  </si>
-  <si>
-    <t>Market share new_min</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Final Product.Metal Underground.Tailing Disposal</t>
-  </si>
-  <si>
-    <t>Tailing Disposal</t>
-  </si>
-  <si>
-    <t>Underground tailings disposal</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Ventilation</t>
-  </si>
-  <si>
-    <t>Ventilation</t>
-  </si>
-  <si>
-    <t>High Eff backward inclined fan</t>
-  </si>
-  <si>
-    <t>High Eff airfoil fan</t>
-  </si>
-  <si>
-    <t>High Eff vane axial tube axial fan</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Conveyance</t>
-  </si>
-  <si>
-    <t>Conveyance</t>
-  </si>
-  <si>
-    <t>High Eff belt conveyor</t>
-  </si>
-  <si>
-    <t>High Eff screw conveyor</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Compression.Small</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>High Eff centrifugal compressor</t>
-  </si>
-  <si>
-    <t>High Eff reciprocating compressor</t>
-  </si>
-  <si>
-    <t>High Eff rotary compressor</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Compression.Large</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Pumping.General.Small</t>
-  </si>
-  <si>
-    <t>High Eff centrifugal pump variable speed</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Pumping.General.Large</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Pumping.Slurry Stock.Small</t>
-  </si>
-  <si>
-    <t>Eff rotary pump variable speed</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Pumping.Slurry Stock.Large</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Pumping.Precision.Small</t>
-  </si>
-  <si>
-    <t>Eff reciprocating pump variable speed</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Pumping.Precision.Large</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Machine Drive.Size 5</t>
-  </si>
-  <si>
-    <t>Size 5</t>
-  </si>
-  <si>
-    <t>Synchronous AC motor 201 500 hp</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Mining.Machine Drive.Size 6</t>
-  </si>
-  <si>
-    <t>Size 6</t>
-  </si>
-  <si>
-    <t>DC motor 500 hp</t>
-  </si>
-  <si>
-    <t>DC solid state motor 500 hp</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.MB.Ethanol.Steam</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>Boilers Coal CCS</t>
-  </si>
-  <si>
-    <t>Boilers NG IA CCS</t>
   </si>
   <si>
     <t>CIMS.CAN.MB.Biodiesel.Steam</t>
@@ -787,56 +784,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22E8646-0E82-468D-9753-BD56B6AC40DF}">
-  <dimension ref="A1:X89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0774E113-38EC-44B9-8071-50BEAA658EB5}">
+  <dimension ref="A1:X88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X90"/>
+      <selection sqref="A1:X89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -872,80 +872,80 @@
         <v>2050</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.9</v>
+      </c>
+      <c r="S3">
+        <v>0.9</v>
+      </c>
+      <c r="T3">
+        <v>0.9</v>
+      </c>
+      <c r="U3">
+        <v>0.9</v>
+      </c>
+      <c r="V3">
+        <v>0.9</v>
+      </c>
+      <c r="W3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>9.9999999999989008E-4</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -954,10 +954,10 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4">
         <v>0.9</v>
@@ -993,207 +993,207 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>0.3</v>
+      </c>
+      <c r="Q5">
+        <v>0.3</v>
+      </c>
+      <c r="R5">
+        <v>0.3</v>
+      </c>
+      <c r="S5">
+        <v>0.3</v>
+      </c>
+      <c r="T5">
+        <v>0.3</v>
+      </c>
+      <c r="U5">
+        <v>0.3</v>
+      </c>
+      <c r="V5">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>0.9</v>
-      </c>
-      <c r="N5">
-        <v>0.9</v>
-      </c>
-      <c r="O5">
-        <v>0.9</v>
-      </c>
-      <c r="P5">
-        <v>0.9</v>
-      </c>
-      <c r="Q5">
-        <v>0.9</v>
-      </c>
-      <c r="R5">
-        <v>0.9</v>
-      </c>
-      <c r="S5">
-        <v>0.9</v>
-      </c>
-      <c r="T5">
-        <v>0.9</v>
-      </c>
-      <c r="U5">
-        <v>0.9</v>
-      </c>
-      <c r="V5">
-        <v>0.9</v>
-      </c>
-      <c r="W5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>0.3</v>
+      </c>
+      <c r="O6">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <v>0.3</v>
+      </c>
+      <c r="Q6">
+        <v>0.3</v>
+      </c>
+      <c r="R6">
+        <v>0.3</v>
+      </c>
+      <c r="S6">
+        <v>0.3</v>
+      </c>
+      <c r="T6">
+        <v>0.3</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
+      </c>
+      <c r="V6">
+        <v>0.3</v>
+      </c>
+      <c r="W6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>0.3</v>
+      </c>
+      <c r="N7">
+        <v>0.3</v>
+      </c>
+      <c r="O7">
+        <v>0.3</v>
+      </c>
+      <c r="P7">
+        <v>0.3</v>
+      </c>
+      <c r="Q7">
+        <v>0.3</v>
+      </c>
+      <c r="R7">
+        <v>0.3</v>
+      </c>
+      <c r="S7">
+        <v>0.3</v>
+      </c>
+      <c r="T7">
+        <v>0.3</v>
+      </c>
+      <c r="U7">
+        <v>0.3</v>
+      </c>
+      <c r="V7">
+        <v>0.3</v>
+      </c>
+      <c r="W7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>0.3</v>
-      </c>
-      <c r="N6">
-        <v>0.3</v>
-      </c>
-      <c r="O6">
-        <v>0.3</v>
-      </c>
-      <c r="P6">
-        <v>0.3</v>
-      </c>
-      <c r="Q6">
-        <v>0.3</v>
-      </c>
-      <c r="R6">
-        <v>0.3</v>
-      </c>
-      <c r="S6">
-        <v>0.3</v>
-      </c>
-      <c r="T6">
-        <v>0.3</v>
-      </c>
-      <c r="U6">
-        <v>0.3</v>
-      </c>
-      <c r="V6">
-        <v>0.3</v>
-      </c>
-      <c r="W6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>0.3</v>
-      </c>
-      <c r="N7">
-        <v>0.3</v>
-      </c>
-      <c r="O7">
-        <v>0.3</v>
-      </c>
-      <c r="P7">
-        <v>0.3</v>
-      </c>
-      <c r="Q7">
-        <v>0.3</v>
-      </c>
-      <c r="R7">
-        <v>0.3</v>
-      </c>
-      <c r="S7">
-        <v>0.3</v>
-      </c>
-      <c r="T7">
-        <v>0.3</v>
-      </c>
-      <c r="U7">
-        <v>0.3</v>
-      </c>
-      <c r="V7">
-        <v>0.3</v>
-      </c>
-      <c r="W7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8">
         <v>0.3</v>
@@ -1229,89 +1229,89 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>0.3</v>
+      </c>
+      <c r="N9">
+        <v>0.3</v>
+      </c>
+      <c r="O9">
+        <v>0.3</v>
+      </c>
+      <c r="P9">
+        <v>0.3</v>
+      </c>
+      <c r="Q9">
+        <v>0.3</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
+      <c r="S9">
+        <v>0.3</v>
+      </c>
+      <c r="T9">
+        <v>0.3</v>
+      </c>
+      <c r="U9">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>0.3</v>
+      </c>
+      <c r="W9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9">
-        <v>0.3</v>
-      </c>
-      <c r="N9">
-        <v>0.3</v>
-      </c>
-      <c r="O9">
-        <v>0.3</v>
-      </c>
-      <c r="P9">
-        <v>0.3</v>
-      </c>
-      <c r="Q9">
-        <v>0.3</v>
-      </c>
-      <c r="R9">
-        <v>0.3</v>
-      </c>
-      <c r="S9">
-        <v>0.3</v>
-      </c>
-      <c r="T9">
-        <v>0.3</v>
-      </c>
-      <c r="U9">
-        <v>0.3</v>
-      </c>
-      <c r="V9">
-        <v>0.3</v>
-      </c>
-      <c r="W9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10">
         <v>0.3</v>
@@ -1347,443 +1347,443 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>0.3</v>
+      </c>
+      <c r="N11">
+        <v>0.3</v>
+      </c>
+      <c r="O11">
+        <v>0.3</v>
+      </c>
+      <c r="P11">
+        <v>0.3</v>
+      </c>
+      <c r="Q11">
+        <v>0.3</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+      <c r="S11">
+        <v>0.3</v>
+      </c>
+      <c r="T11">
+        <v>0.3</v>
+      </c>
+      <c r="U11">
+        <v>0.3</v>
+      </c>
+      <c r="V11">
+        <v>0.3</v>
+      </c>
+      <c r="W11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>0.3</v>
+      </c>
+      <c r="N12">
+        <v>0.3</v>
+      </c>
+      <c r="O12">
+        <v>0.3</v>
+      </c>
+      <c r="P12">
+        <v>0.3</v>
+      </c>
+      <c r="Q12">
+        <v>0.3</v>
+      </c>
+      <c r="R12">
+        <v>0.3</v>
+      </c>
+      <c r="S12">
+        <v>0.3</v>
+      </c>
+      <c r="T12">
+        <v>0.3</v>
+      </c>
+      <c r="U12">
+        <v>0.3</v>
+      </c>
+      <c r="V12">
+        <v>0.3</v>
+      </c>
+      <c r="W12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>0.3</v>
-      </c>
-      <c r="N11">
-        <v>0.3</v>
-      </c>
-      <c r="O11">
-        <v>0.3</v>
-      </c>
-      <c r="P11">
-        <v>0.3</v>
-      </c>
-      <c r="Q11">
-        <v>0.3</v>
-      </c>
-      <c r="R11">
-        <v>0.3</v>
-      </c>
-      <c r="S11">
-        <v>0.3</v>
-      </c>
-      <c r="T11">
-        <v>0.3</v>
-      </c>
-      <c r="U11">
-        <v>0.3</v>
-      </c>
-      <c r="V11">
-        <v>0.3</v>
-      </c>
-      <c r="W11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>0.3</v>
+      </c>
+      <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>0.3</v>
+      </c>
+      <c r="Q13">
+        <v>0.3</v>
+      </c>
+      <c r="R13">
+        <v>0.3</v>
+      </c>
+      <c r="S13">
+        <v>0.3</v>
+      </c>
+      <c r="T13">
+        <v>0.3</v>
+      </c>
+      <c r="U13">
+        <v>0.3</v>
+      </c>
+      <c r="V13">
+        <v>0.3</v>
+      </c>
+      <c r="W13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14">
+        <v>0.3</v>
+      </c>
+      <c r="N14">
+        <v>0.3</v>
+      </c>
+      <c r="O14">
+        <v>0.3</v>
+      </c>
+      <c r="P14">
+        <v>0.3</v>
+      </c>
+      <c r="Q14">
+        <v>0.3</v>
+      </c>
+      <c r="R14">
+        <v>0.3</v>
+      </c>
+      <c r="S14">
+        <v>0.3</v>
+      </c>
+      <c r="T14">
+        <v>0.3</v>
+      </c>
+      <c r="U14">
+        <v>0.3</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+      <c r="N15">
+        <v>0.3</v>
+      </c>
+      <c r="O15">
+        <v>0.3</v>
+      </c>
+      <c r="P15">
+        <v>0.3</v>
+      </c>
+      <c r="Q15">
+        <v>0.3</v>
+      </c>
+      <c r="R15">
+        <v>0.3</v>
+      </c>
+      <c r="S15">
+        <v>0.3</v>
+      </c>
+      <c r="T15">
+        <v>0.3</v>
+      </c>
+      <c r="U15">
+        <v>0.3</v>
+      </c>
+      <c r="V15">
+        <v>0.3</v>
+      </c>
+      <c r="W15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>0.3</v>
+      </c>
+      <c r="N16">
+        <v>0.3</v>
+      </c>
+      <c r="O16">
+        <v>0.3</v>
+      </c>
+      <c r="P16">
+        <v>0.3</v>
+      </c>
+      <c r="Q16">
+        <v>0.3</v>
+      </c>
+      <c r="R16">
+        <v>0.3</v>
+      </c>
+      <c r="S16">
+        <v>0.3</v>
+      </c>
+      <c r="T16">
+        <v>0.3</v>
+      </c>
+      <c r="U16">
+        <v>0.3</v>
+      </c>
+      <c r="V16">
+        <v>0.3</v>
+      </c>
+      <c r="W16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>0.3</v>
-      </c>
-      <c r="N12">
-        <v>0.3</v>
-      </c>
-      <c r="O12">
-        <v>0.3</v>
-      </c>
-      <c r="P12">
-        <v>0.3</v>
-      </c>
-      <c r="Q12">
-        <v>0.3</v>
-      </c>
-      <c r="R12">
-        <v>0.3</v>
-      </c>
-      <c r="S12">
-        <v>0.3</v>
-      </c>
-      <c r="T12">
-        <v>0.3</v>
-      </c>
-      <c r="U12">
-        <v>0.3</v>
-      </c>
-      <c r="V12">
-        <v>0.3</v>
-      </c>
-      <c r="W12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13">
-        <v>0.3</v>
-      </c>
-      <c r="N13">
-        <v>0.3</v>
-      </c>
-      <c r="O13">
-        <v>0.3</v>
-      </c>
-      <c r="P13">
-        <v>0.3</v>
-      </c>
-      <c r="Q13">
-        <v>0.3</v>
-      </c>
-      <c r="R13">
-        <v>0.3</v>
-      </c>
-      <c r="S13">
-        <v>0.3</v>
-      </c>
-      <c r="T13">
-        <v>0.3</v>
-      </c>
-      <c r="U13">
-        <v>0.3</v>
-      </c>
-      <c r="V13">
-        <v>0.3</v>
-      </c>
-      <c r="W13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14">
-        <v>0.3</v>
-      </c>
-      <c r="N14">
-        <v>0.3</v>
-      </c>
-      <c r="O14">
-        <v>0.3</v>
-      </c>
-      <c r="P14">
-        <v>0.3</v>
-      </c>
-      <c r="Q14">
-        <v>0.3</v>
-      </c>
-      <c r="R14">
-        <v>0.3</v>
-      </c>
-      <c r="S14">
-        <v>0.3</v>
-      </c>
-      <c r="T14">
-        <v>0.3</v>
-      </c>
-      <c r="U14">
-        <v>0.3</v>
-      </c>
-      <c r="V14">
-        <v>0.3</v>
-      </c>
-      <c r="W14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>0.3</v>
-      </c>
-      <c r="N15">
-        <v>0.3</v>
-      </c>
-      <c r="O15">
-        <v>0.3</v>
-      </c>
-      <c r="P15">
-        <v>0.3</v>
-      </c>
-      <c r="Q15">
-        <v>0.3</v>
-      </c>
-      <c r="R15">
-        <v>0.3</v>
-      </c>
-      <c r="S15">
-        <v>0.3</v>
-      </c>
-      <c r="T15">
-        <v>0.3</v>
-      </c>
-      <c r="U15">
-        <v>0.3</v>
-      </c>
-      <c r="V15">
-        <v>0.3</v>
-      </c>
-      <c r="W15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <v>0.3</v>
-      </c>
-      <c r="N16">
-        <v>0.3</v>
-      </c>
-      <c r="O16">
-        <v>0.3</v>
-      </c>
-      <c r="P16">
-        <v>0.3</v>
-      </c>
-      <c r="Q16">
-        <v>0.3</v>
-      </c>
-      <c r="R16">
-        <v>0.3</v>
-      </c>
-      <c r="S16">
-        <v>0.3</v>
-      </c>
-      <c r="T16">
-        <v>0.3</v>
-      </c>
-      <c r="U16">
-        <v>0.3</v>
-      </c>
-      <c r="V16">
-        <v>0.3</v>
-      </c>
-      <c r="W16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>0.3</v>
+      </c>
+      <c r="N17">
+        <v>0.3</v>
+      </c>
+      <c r="O17">
+        <v>0.3</v>
+      </c>
+      <c r="P17">
+        <v>0.3</v>
+      </c>
+      <c r="Q17">
+        <v>0.3</v>
+      </c>
+      <c r="R17">
+        <v>0.3</v>
+      </c>
+      <c r="S17">
+        <v>0.3</v>
+      </c>
+      <c r="T17">
+        <v>0.3</v>
+      </c>
+      <c r="U17">
+        <v>0.3</v>
+      </c>
+      <c r="V17">
+        <v>0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17">
-        <v>0.3</v>
-      </c>
-      <c r="N17">
-        <v>0.3</v>
-      </c>
-      <c r="O17">
-        <v>0.3</v>
-      </c>
-      <c r="P17">
-        <v>0.3</v>
-      </c>
-      <c r="Q17">
-        <v>0.3</v>
-      </c>
-      <c r="R17">
-        <v>0.3</v>
-      </c>
-      <c r="S17">
-        <v>0.3</v>
-      </c>
-      <c r="T17">
-        <v>0.3</v>
-      </c>
-      <c r="U17">
-        <v>0.3</v>
-      </c>
-      <c r="V17">
-        <v>0.3</v>
-      </c>
-      <c r="W17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18">
         <v>0.3</v>
@@ -1819,313 +1819,313 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>0.3</v>
+      </c>
+      <c r="N19">
+        <v>0.3</v>
+      </c>
+      <c r="O19">
+        <v>0.3</v>
+      </c>
+      <c r="P19">
+        <v>0.3</v>
+      </c>
+      <c r="Q19">
+        <v>0.3</v>
+      </c>
+      <c r="R19">
+        <v>0.3</v>
+      </c>
+      <c r="S19">
+        <v>0.3</v>
+      </c>
+      <c r="T19">
+        <v>0.3</v>
+      </c>
+      <c r="U19">
+        <v>0.3</v>
+      </c>
+      <c r="V19">
+        <v>0.3</v>
+      </c>
+      <c r="W19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19">
-        <v>0.3</v>
-      </c>
-      <c r="N19">
-        <v>0.3</v>
-      </c>
-      <c r="O19">
-        <v>0.3</v>
-      </c>
-      <c r="P19">
-        <v>0.3</v>
-      </c>
-      <c r="Q19">
-        <v>0.3</v>
-      </c>
-      <c r="R19">
-        <v>0.3</v>
-      </c>
-      <c r="S19">
-        <v>0.3</v>
-      </c>
-      <c r="T19">
-        <v>0.3</v>
-      </c>
-      <c r="U19">
-        <v>0.3</v>
-      </c>
-      <c r="V19">
-        <v>0.3</v>
-      </c>
-      <c r="W19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>0.3</v>
+      </c>
+      <c r="N20">
+        <v>0.3</v>
+      </c>
+      <c r="O20">
+        <v>0.3</v>
+      </c>
+      <c r="P20">
+        <v>0.3</v>
+      </c>
+      <c r="Q20">
+        <v>0.3</v>
+      </c>
+      <c r="R20">
+        <v>0.3</v>
+      </c>
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>0.3</v>
+      </c>
+      <c r="U20">
+        <v>0.3</v>
+      </c>
+      <c r="V20">
+        <v>0.3</v>
+      </c>
+      <c r="W20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>0.3</v>
+      </c>
+      <c r="N21">
+        <v>0.3</v>
+      </c>
+      <c r="O21">
+        <v>0.3</v>
+      </c>
+      <c r="P21">
+        <v>0.3</v>
+      </c>
+      <c r="Q21">
+        <v>0.3</v>
+      </c>
+      <c r="R21">
+        <v>0.3</v>
+      </c>
+      <c r="S21">
+        <v>0.3</v>
+      </c>
+      <c r="T21">
+        <v>0.3</v>
+      </c>
+      <c r="U21">
+        <v>0.3</v>
+      </c>
+      <c r="V21">
+        <v>0.3</v>
+      </c>
+      <c r="W21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>0.2</v>
+      </c>
+      <c r="N22">
+        <v>0.2</v>
+      </c>
+      <c r="O22">
+        <v>0.2</v>
+      </c>
+      <c r="P22">
+        <v>0.2</v>
+      </c>
+      <c r="Q22">
+        <v>0.2</v>
+      </c>
+      <c r="R22">
+        <v>0.2</v>
+      </c>
+      <c r="S22">
+        <v>0.2</v>
+      </c>
+      <c r="T22">
+        <v>0.2</v>
+      </c>
+      <c r="U22">
+        <v>0.2</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="M20">
-        <v>0.3</v>
-      </c>
-      <c r="N20">
-        <v>0.3</v>
-      </c>
-      <c r="O20">
-        <v>0.3</v>
-      </c>
-      <c r="P20">
-        <v>0.3</v>
-      </c>
-      <c r="Q20">
-        <v>0.3</v>
-      </c>
-      <c r="R20">
-        <v>0.3</v>
-      </c>
-      <c r="S20">
-        <v>0.3</v>
-      </c>
-      <c r="T20">
-        <v>0.3</v>
-      </c>
-      <c r="U20">
-        <v>0.3</v>
-      </c>
-      <c r="V20">
-        <v>0.3</v>
-      </c>
-      <c r="W20">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>0.3</v>
-      </c>
-      <c r="N21">
-        <v>0.3</v>
-      </c>
-      <c r="O21">
-        <v>0.3</v>
-      </c>
-      <c r="P21">
-        <v>0.3</v>
-      </c>
-      <c r="Q21">
-        <v>0.3</v>
-      </c>
-      <c r="R21">
-        <v>0.3</v>
-      </c>
-      <c r="S21">
-        <v>0.3</v>
-      </c>
-      <c r="T21">
-        <v>0.3</v>
-      </c>
-      <c r="U21">
-        <v>0.3</v>
-      </c>
-      <c r="V21">
-        <v>0.3</v>
-      </c>
-      <c r="W21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22">
-        <v>0.3</v>
-      </c>
-      <c r="N22">
-        <v>0.3</v>
-      </c>
-      <c r="O22">
-        <v>0.3</v>
-      </c>
-      <c r="P22">
-        <v>0.3</v>
-      </c>
-      <c r="Q22">
-        <v>0.3</v>
-      </c>
-      <c r="R22">
-        <v>0.3</v>
-      </c>
-      <c r="S22">
-        <v>0.3</v>
-      </c>
-      <c r="T22">
-        <v>0.3</v>
-      </c>
-      <c r="U22">
-        <v>0.3</v>
-      </c>
-      <c r="V22">
-        <v>0.3</v>
-      </c>
-      <c r="W22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="N23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="O23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="P23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="Q23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="R23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="S23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="T23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="U23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="V23">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="W23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>55</v>
@@ -2134,246 +2134,246 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>0.3</v>
+      </c>
+      <c r="N24">
+        <v>0.3</v>
+      </c>
+      <c r="O24">
+        <v>0.3</v>
+      </c>
+      <c r="P24">
+        <v>0.3</v>
+      </c>
+      <c r="Q24">
+        <v>0.3</v>
+      </c>
+      <c r="R24">
+        <v>0.3</v>
+      </c>
+      <c r="S24">
+        <v>0.3</v>
+      </c>
+      <c r="T24">
+        <v>0.3</v>
+      </c>
+      <c r="U24">
+        <v>0.3</v>
+      </c>
+      <c r="V24">
+        <v>0.3</v>
+      </c>
+      <c r="W24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
         <v>20</v>
       </c>
-      <c r="M24">
-        <v>0.17</v>
-      </c>
-      <c r="N24">
-        <v>0.17</v>
-      </c>
-      <c r="O24">
-        <v>0.17</v>
-      </c>
-      <c r="P24">
-        <v>0.17</v>
-      </c>
-      <c r="Q24">
-        <v>0.17</v>
-      </c>
-      <c r="R24">
-        <v>0.17</v>
-      </c>
-      <c r="S24">
-        <v>0.17</v>
-      </c>
-      <c r="T24">
-        <v>0.17</v>
-      </c>
-      <c r="U24">
-        <v>0.17</v>
-      </c>
-      <c r="V24">
-        <v>0.17</v>
-      </c>
-      <c r="W24">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25">
+        <v>0.25</v>
+      </c>
+      <c r="N25">
+        <v>0.25</v>
+      </c>
+      <c r="O25">
+        <v>0.25</v>
+      </c>
+      <c r="P25">
+        <v>0.25</v>
+      </c>
+      <c r="Q25">
+        <v>0.25</v>
+      </c>
+      <c r="R25">
+        <v>0.25</v>
+      </c>
+      <c r="S25">
+        <v>0.25</v>
+      </c>
+      <c r="T25">
+        <v>0.25</v>
+      </c>
+      <c r="U25">
+        <v>0.25</v>
+      </c>
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+      <c r="W25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>0.1</v>
+      </c>
+      <c r="N26">
+        <v>0.1</v>
+      </c>
+      <c r="O26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>0.1</v>
+      </c>
+      <c r="R26">
+        <v>0.1</v>
+      </c>
+      <c r="S26">
+        <v>0.1</v>
+      </c>
+      <c r="T26">
+        <v>0.1</v>
+      </c>
+      <c r="U26">
+        <v>0.1</v>
+      </c>
+      <c r="V26">
+        <v>0.1</v>
+      </c>
+      <c r="W26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="F25" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>0.3</v>
-      </c>
-      <c r="N25">
-        <v>0.3</v>
-      </c>
-      <c r="O25">
-        <v>0.3</v>
-      </c>
-      <c r="P25">
-        <v>0.3</v>
-      </c>
-      <c r="Q25">
-        <v>0.3</v>
-      </c>
-      <c r="R25">
-        <v>0.3</v>
-      </c>
-      <c r="S25">
-        <v>0.3</v>
-      </c>
-      <c r="T25">
-        <v>0.3</v>
-      </c>
-      <c r="U25">
-        <v>0.3</v>
-      </c>
-      <c r="V25">
-        <v>0.3</v>
-      </c>
-      <c r="W25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>9.9999999999989008E-4</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
       </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>0.25</v>
-      </c>
-      <c r="N26">
-        <v>0.25</v>
-      </c>
-      <c r="O26">
-        <v>0.25</v>
-      </c>
-      <c r="P26">
-        <v>0.25</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>0.25</v>
-      </c>
-      <c r="S26">
-        <v>0.25</v>
-      </c>
-      <c r="T26">
-        <v>0.25</v>
-      </c>
-      <c r="U26">
-        <v>0.25</v>
-      </c>
-      <c r="V26">
-        <v>0.25</v>
-      </c>
-      <c r="W26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E28" t="s">
         <v>60</v>
       </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27">
-        <v>0.1</v>
-      </c>
-      <c r="N27">
-        <v>0.1</v>
-      </c>
-      <c r="O27">
-        <v>0.1</v>
-      </c>
-      <c r="P27">
-        <v>0.1</v>
-      </c>
-      <c r="Q27">
-        <v>0.1</v>
-      </c>
-      <c r="R27">
-        <v>0.1</v>
-      </c>
-      <c r="S27">
-        <v>0.1</v>
-      </c>
-      <c r="T27">
-        <v>0.1</v>
-      </c>
-      <c r="U27">
-        <v>0.1</v>
-      </c>
-      <c r="V27">
-        <v>0.1</v>
-      </c>
-      <c r="W27">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2409,30 +2409,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2468,30 +2468,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2527,30 +2527,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2586,30 +2586,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2645,207 +2645,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33">
+        <v>0.2</v>
+      </c>
+      <c r="N33">
+        <v>0.2</v>
+      </c>
+      <c r="O33">
+        <v>0.2</v>
+      </c>
+      <c r="P33">
+        <v>0.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.2</v>
+      </c>
+      <c r="R33">
+        <v>0.2</v>
+      </c>
+      <c r="S33">
+        <v>0.2</v>
+      </c>
+      <c r="T33">
+        <v>0.2</v>
+      </c>
+      <c r="U33">
+        <v>0.2</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>9.9999999999989008E-4</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
       </c>
       <c r="F34" t="s">
         <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>0.8</v>
+      </c>
+      <c r="N34">
+        <v>0.8</v>
+      </c>
+      <c r="O34">
+        <v>0.8</v>
+      </c>
+      <c r="P34">
+        <v>0.8</v>
+      </c>
+      <c r="Q34">
+        <v>0.8</v>
+      </c>
+      <c r="R34">
+        <v>0.8</v>
+      </c>
+      <c r="S34">
+        <v>0.8</v>
+      </c>
+      <c r="T34">
+        <v>0.8</v>
+      </c>
+      <c r="U34">
+        <v>0.8</v>
+      </c>
+      <c r="V34">
+        <v>0.8</v>
+      </c>
+      <c r="W34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
         <v>20</v>
       </c>
-      <c r="M34">
-        <v>0.2</v>
-      </c>
-      <c r="N34">
-        <v>0.2</v>
-      </c>
-      <c r="O34">
-        <v>0.2</v>
-      </c>
-      <c r="P34">
-        <v>0.2</v>
-      </c>
-      <c r="Q34">
-        <v>0.2</v>
-      </c>
-      <c r="R34">
-        <v>0.2</v>
-      </c>
-      <c r="S34">
-        <v>0.2</v>
-      </c>
-      <c r="T34">
-        <v>0.2</v>
-      </c>
-      <c r="U34">
-        <v>0.2</v>
-      </c>
-      <c r="V34">
-        <v>0.2</v>
-      </c>
-      <c r="W34">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0.5</v>
+      </c>
+      <c r="W35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35">
-        <v>0.8</v>
-      </c>
-      <c r="N35">
-        <v>0.8</v>
-      </c>
-      <c r="O35">
-        <v>0.8</v>
-      </c>
-      <c r="P35">
-        <v>0.8</v>
-      </c>
-      <c r="Q35">
-        <v>0.8</v>
-      </c>
-      <c r="R35">
-        <v>0.8</v>
-      </c>
-      <c r="S35">
-        <v>0.8</v>
-      </c>
-      <c r="T35">
-        <v>0.8</v>
-      </c>
-      <c r="U35">
-        <v>0.8</v>
-      </c>
-      <c r="V35">
-        <v>0.8</v>
-      </c>
-      <c r="W35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
       </c>
       <c r="F36" t="s">
         <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M36">
         <v>0.5</v>
@@ -2881,89 +2881,89 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>0.3</v>
+      </c>
+      <c r="N37">
+        <v>0.3</v>
+      </c>
+      <c r="O37">
+        <v>0.3</v>
+      </c>
+      <c r="P37">
+        <v>0.3</v>
+      </c>
+      <c r="Q37">
+        <v>0.3</v>
+      </c>
+      <c r="R37">
+        <v>0.3</v>
+      </c>
+      <c r="S37">
+        <v>0.3</v>
+      </c>
+      <c r="T37">
+        <v>0.3</v>
+      </c>
+      <c r="U37">
+        <v>0.3</v>
+      </c>
+      <c r="V37">
+        <v>0.3</v>
+      </c>
+      <c r="W37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37">
-        <v>0.5</v>
-      </c>
-      <c r="N37">
-        <v>0.5</v>
-      </c>
-      <c r="O37">
-        <v>0.5</v>
-      </c>
-      <c r="P37">
-        <v>0.5</v>
-      </c>
-      <c r="Q37">
-        <v>0.5</v>
-      </c>
-      <c r="R37">
-        <v>0.5</v>
-      </c>
-      <c r="S37">
-        <v>0.5</v>
-      </c>
-      <c r="T37">
-        <v>0.5</v>
-      </c>
-      <c r="U37">
-        <v>0.5</v>
-      </c>
-      <c r="V37">
-        <v>0.5</v>
-      </c>
-      <c r="W37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
         <v>30</v>
       </c>
-      <c r="F38" t="s">
-        <v>31</v>
-      </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M38">
         <v>0.3</v>
@@ -2999,30 +2999,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M39">
         <v>0.3</v>
@@ -3058,30 +3058,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M40">
         <v>0.3</v>
@@ -3117,30 +3117,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M41">
         <v>0.3</v>
@@ -3176,30 +3176,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
         <v>39</v>
       </c>
-      <c r="F42" t="s">
-        <v>42</v>
-      </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42">
         <v>0.3</v>
@@ -3235,30 +3235,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43">
         <v>0.3</v>
@@ -3294,30 +3294,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M44">
         <v>0.3</v>
@@ -3353,30 +3353,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M45">
         <v>0.3</v>
@@ -3412,30 +3412,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M46">
         <v>0.3</v>
@@ -3471,30 +3471,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M47">
         <v>0.3</v>
@@ -3530,30 +3530,30 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M48">
         <v>0.3</v>
@@ -3589,331 +3589,341 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="N49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="O49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="P49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="Q49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="R49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="S49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="T49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="U49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="V49">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="W49">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
         <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="N50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="Q50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="R50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="S50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="T50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="U50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="V50">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="W50">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>88</v>
       </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51">
-        <v>0.16</v>
-      </c>
-      <c r="N51">
-        <v>0.16</v>
-      </c>
-      <c r="O51">
-        <v>0.16</v>
-      </c>
-      <c r="P51">
-        <v>0.16</v>
-      </c>
-      <c r="Q51">
-        <v>0.16</v>
-      </c>
-      <c r="R51">
-        <v>0.16</v>
-      </c>
-      <c r="S51">
-        <v>0.16</v>
-      </c>
-      <c r="T51">
-        <v>0.16</v>
-      </c>
-      <c r="U51">
-        <v>0.16</v>
-      </c>
-      <c r="V51">
-        <v>0.16</v>
-      </c>
-      <c r="W51">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
         <v>89</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
-        <v>90</v>
-      </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
         <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>0.01</v>
+        <v>2.7E-2</v>
       </c>
       <c r="N53">
-        <v>0.01</v>
+        <f t="shared" ref="N53:W68" ca="1" si="0">M53</f>
+        <v>2.7E-2</v>
       </c>
       <c r="O53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="P53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="Q53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="R53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="S53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="T53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="U53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="V53">
-        <v>0.01</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="W53">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
         <v>93</v>
       </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>94</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>95</v>
       </c>
-      <c r="F54" t="s">
-        <v>96</v>
-      </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M54">
         <v>2.7E-2</v>
       </c>
       <c r="N54">
-        <f t="shared" ref="N54:W69" ca="1" si="0">M54</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2.7E-2</v>
       </c>
       <c r="O54">
@@ -3953,30 +3963,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" t="s">
         <v>94</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>95</v>
       </c>
-      <c r="F55" t="s">
-        <v>96</v>
-      </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M55">
         <v>2.7E-2</v>
@@ -4022,30 +4032,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" t="s">
         <v>94</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>95</v>
       </c>
-      <c r="F56" t="s">
-        <v>96</v>
-      </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M56">
         <v>2.7E-2</v>
@@ -4091,30 +4101,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" t="s">
         <v>94</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>95</v>
       </c>
-      <c r="F57" t="s">
-        <v>96</v>
-      </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M57">
         <v>2.7E-2</v>
@@ -4160,30 +4170,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
         <v>94</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>95</v>
       </c>
-      <c r="F58" t="s">
-        <v>96</v>
-      </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M58">
         <v>2.7E-2</v>
@@ -4229,30 +4239,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
         <v>94</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>95</v>
       </c>
-      <c r="F59" t="s">
-        <v>96</v>
-      </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M59">
         <v>2.7E-2</v>
@@ -4298,30 +4308,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" t="s">
         <v>94</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>95</v>
       </c>
-      <c r="F60" t="s">
-        <v>96</v>
-      </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60">
         <v>2.7E-2</v>
@@ -4367,30 +4377,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" t="s">
         <v>94</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>95</v>
       </c>
-      <c r="F61" t="s">
-        <v>96</v>
-      </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M61">
         <v>2.7E-2</v>
@@ -4436,30 +4446,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" t="s">
         <v>94</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>95</v>
       </c>
-      <c r="F62" t="s">
-        <v>96</v>
-      </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M62">
         <v>2.7E-2</v>
@@ -4505,30 +4515,30 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
         <v>94</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>95</v>
       </c>
-      <c r="F63" t="s">
-        <v>96</v>
-      </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M63">
         <v>2.7E-2</v>
@@ -4574,168 +4584,168 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" t="s">
         <v>94</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>95</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="S64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="T64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="V64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="W64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>96</v>
       </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F66" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
         <v>20</v>
       </c>
-      <c r="M64">
-        <v>2.7E-2</v>
-      </c>
-      <c r="N64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="O64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="P64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="R64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="S64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="T64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="U64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="V64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="W64">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65">
-        <v>2.7E-2</v>
-      </c>
-      <c r="N65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="O65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="P65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="R65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="S65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="T65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="U65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="V65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="W65">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" t="s">
-        <v>96</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
       <c r="L66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M66">
         <v>2.5999999999999999E-2</v>
@@ -4781,30 +4791,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" t="s">
         <v>94</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>95</v>
       </c>
-      <c r="F67" t="s">
-        <v>96</v>
-      </c>
       <c r="G67" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M67">
         <v>2.5999999999999999E-2</v>
@@ -4850,30 +4860,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" t="s">
         <v>94</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>95</v>
       </c>
-      <c r="F68" t="s">
-        <v>96</v>
-      </c>
       <c r="G68" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M68">
         <v>2.5999999999999999E-2</v>
@@ -4919,105 +4929,105 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" t="s">
         <v>94</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>95</v>
       </c>
-      <c r="F69" t="s">
-        <v>96</v>
-      </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M69">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="N69:W77" ca="1" si="1">M69</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="P69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="Q69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="R69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="S69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="T69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="U69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="V69">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="W69">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" t="s">
         <v>94</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>95</v>
       </c>
-      <c r="F70" t="s">
-        <v>96</v>
-      </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M70">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N70">
-        <f t="shared" ref="N70:W78" ca="1" si="1">M70</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O70">
@@ -5057,30 +5067,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" t="s">
         <v>94</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>95</v>
       </c>
-      <c r="F71" t="s">
-        <v>96</v>
-      </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M71">
         <v>2.5999999999999999E-2</v>
@@ -5126,30 +5136,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" t="s">
         <v>94</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>95</v>
       </c>
-      <c r="F72" t="s">
-        <v>96</v>
-      </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M72">
         <v>2.5999999999999999E-2</v>
@@ -5195,30 +5205,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" t="s">
         <v>94</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>95</v>
       </c>
-      <c r="F73" t="s">
-        <v>96</v>
-      </c>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M73">
         <v>2.5999999999999999E-2</v>
@@ -5264,30 +5274,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" t="s">
         <v>94</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>95</v>
       </c>
-      <c r="F74" t="s">
-        <v>96</v>
-      </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M74">
         <v>2.5999999999999999E-2</v>
@@ -5333,30 +5343,30 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
         <v>94</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>95</v>
       </c>
-      <c r="F75" t="s">
-        <v>96</v>
-      </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M75">
         <v>2.5999999999999999E-2</v>
@@ -5402,36 +5412,36 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" t="s">
         <v>94</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>95</v>
       </c>
-      <c r="F76" t="s">
-        <v>96</v>
-      </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M76">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N76">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">M76</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O76">
@@ -5471,540 +5481,533 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M77">
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="N77">
         <f ca="1">M77</f>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="P77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="Q77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="R77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="S77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="T77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="U77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="V77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
+        <v>0.4</v>
       </c>
       <c r="W77">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="X77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="N78">
-        <f ca="1">M78</f>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="O78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="P78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="Q78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="R78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="S78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="T78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="U78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="V78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="W78">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="X78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="N79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="O79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="P79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="Q79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="R79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="S79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="T79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="U79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="V79">
-        <v>0.95</v>
+        <v>0.01</v>
       </c>
       <c r="W79">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="X79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
         <v>117</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>118</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80">
+        <v>0.01</v>
+      </c>
+      <c r="N80">
+        <v>0.01</v>
+      </c>
+      <c r="O80">
+        <v>0.01</v>
+      </c>
+      <c r="P80">
+        <v>0.01</v>
+      </c>
+      <c r="Q80">
+        <v>0.01</v>
+      </c>
+      <c r="R80">
+        <v>0.01</v>
+      </c>
+      <c r="S80">
+        <v>0.01</v>
+      </c>
+      <c r="T80">
+        <v>0.01</v>
+      </c>
+      <c r="U80">
+        <v>0.01</v>
+      </c>
+      <c r="V80">
+        <v>0.01</v>
+      </c>
+      <c r="W80">
+        <v>0.01</v>
+      </c>
+      <c r="X80" t="s">
         <v>119</v>
       </c>
-      <c r="G80" t="s">
-        <v>19</v>
-      </c>
-      <c r="L80" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80">
-        <v>0.01</v>
-      </c>
-      <c r="N80">
-        <v>0.01</v>
-      </c>
-      <c r="O80">
-        <v>0.01</v>
-      </c>
-      <c r="P80">
-        <v>0.01</v>
-      </c>
-      <c r="Q80">
-        <v>0.01</v>
-      </c>
-      <c r="R80">
-        <v>0.01</v>
-      </c>
-      <c r="S80">
-        <v>0.01</v>
-      </c>
-      <c r="T80">
-        <v>0.01</v>
-      </c>
-      <c r="U80">
-        <v>0.01</v>
-      </c>
-      <c r="V80">
-        <v>0.01</v>
-      </c>
-      <c r="W80">
-        <v>0.01</v>
-      </c>
-      <c r="X80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" t="s">
         <v>118</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81">
+        <v>0.01</v>
+      </c>
+      <c r="N81">
+        <v>0.01</v>
+      </c>
+      <c r="O81">
+        <v>0.01</v>
+      </c>
+      <c r="P81">
+        <v>0.01</v>
+      </c>
+      <c r="Q81">
+        <v>0.01</v>
+      </c>
+      <c r="R81">
+        <v>0.01</v>
+      </c>
+      <c r="S81">
+        <v>0.01</v>
+      </c>
+      <c r="T81">
+        <v>0.01</v>
+      </c>
+      <c r="U81">
+        <v>0.01</v>
+      </c>
+      <c r="V81">
+        <v>0.01</v>
+      </c>
+      <c r="W81">
+        <v>0.01</v>
+      </c>
+      <c r="X81" t="s">
         <v>119</v>
       </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="L81" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81">
-        <v>0.01</v>
-      </c>
-      <c r="N81">
-        <v>0.01</v>
-      </c>
-      <c r="O81">
-        <v>0.01</v>
-      </c>
-      <c r="P81">
-        <v>0.01</v>
-      </c>
-      <c r="Q81">
-        <v>0.01</v>
-      </c>
-      <c r="R81">
-        <v>0.01</v>
-      </c>
-      <c r="S81">
-        <v>0.01</v>
-      </c>
-      <c r="T81">
-        <v>0.01</v>
-      </c>
-      <c r="U81">
-        <v>0.01</v>
-      </c>
-      <c r="V81">
-        <v>0.01</v>
-      </c>
-      <c r="W81">
-        <v>0.01</v>
-      </c>
-      <c r="X81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" t="s">
         <v>118</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82">
+        <v>0.01</v>
+      </c>
+      <c r="N82">
+        <v>0.01</v>
+      </c>
+      <c r="O82">
+        <v>0.01</v>
+      </c>
+      <c r="P82">
+        <v>0.01</v>
+      </c>
+      <c r="Q82">
+        <v>0.01</v>
+      </c>
+      <c r="R82">
+        <v>0.01</v>
+      </c>
+      <c r="S82">
+        <v>0.01</v>
+      </c>
+      <c r="T82">
+        <v>0.01</v>
+      </c>
+      <c r="U82">
+        <v>0.01</v>
+      </c>
+      <c r="V82">
+        <v>0.01</v>
+      </c>
+      <c r="W82">
+        <v>0.01</v>
+      </c>
+      <c r="X82" t="s">
         <v>119</v>
       </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82">
-        <v>0.01</v>
-      </c>
-      <c r="N82">
-        <v>0.01</v>
-      </c>
-      <c r="O82">
-        <v>0.01</v>
-      </c>
-      <c r="P82">
-        <v>0.01</v>
-      </c>
-      <c r="Q82">
-        <v>0.01</v>
-      </c>
-      <c r="R82">
-        <v>0.01</v>
-      </c>
-      <c r="S82">
-        <v>0.01</v>
-      </c>
-      <c r="T82">
-        <v>0.01</v>
-      </c>
-      <c r="U82">
-        <v>0.01</v>
-      </c>
-      <c r="V82">
-        <v>0.01</v>
-      </c>
-      <c r="W82">
-        <v>0.01</v>
-      </c>
-      <c r="X82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" t="s">
         <v>118</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83">
+        <v>0.01</v>
+      </c>
+      <c r="N83">
+        <v>0.01</v>
+      </c>
+      <c r="O83">
+        <v>0.01</v>
+      </c>
+      <c r="P83">
+        <v>0.01</v>
+      </c>
+      <c r="Q83">
+        <v>0.01</v>
+      </c>
+      <c r="R83">
+        <v>0.01</v>
+      </c>
+      <c r="S83">
+        <v>0.01</v>
+      </c>
+      <c r="T83">
+        <v>0.01</v>
+      </c>
+      <c r="U83">
+        <v>0.01</v>
+      </c>
+      <c r="V83">
+        <v>0.01</v>
+      </c>
+      <c r="W83">
+        <v>0.01</v>
+      </c>
+      <c r="X83" t="s">
         <v>119</v>
       </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="L83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83">
-        <v>0.01</v>
-      </c>
-      <c r="N83">
-        <v>0.01</v>
-      </c>
-      <c r="O83">
-        <v>0.01</v>
-      </c>
-      <c r="P83">
-        <v>0.01</v>
-      </c>
-      <c r="Q83">
-        <v>0.01</v>
-      </c>
-      <c r="R83">
-        <v>0.01</v>
-      </c>
-      <c r="S83">
-        <v>0.01</v>
-      </c>
-      <c r="T83">
-        <v>0.01</v>
-      </c>
-      <c r="U83">
-        <v>0.01</v>
-      </c>
-      <c r="V83">
-        <v>0.01</v>
-      </c>
-      <c r="W83">
-        <v>0.01</v>
-      </c>
-      <c r="X83" t="s">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" t="s">
+        <v>125</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84">
+        <v>0.03</v>
+      </c>
+      <c r="N84">
+        <v>0.03</v>
+      </c>
+      <c r="O84">
+        <v>0.03</v>
+      </c>
+      <c r="P84">
+        <v>0.03</v>
+      </c>
+      <c r="Q84">
+        <v>0.03</v>
+      </c>
+      <c r="R84">
+        <v>0.03</v>
+      </c>
+      <c r="S84">
+        <v>0.03</v>
+      </c>
+      <c r="T84">
+        <v>0.03</v>
+      </c>
+      <c r="U84">
+        <v>0.03</v>
+      </c>
+      <c r="V84">
+        <v>0.03</v>
+      </c>
+      <c r="W84">
+        <v>0.03</v>
+      </c>
+      <c r="X84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" t="s">
         <v>125</v>
       </c>
-      <c r="E84" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" t="s">
-        <v>119</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="L84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84">
-        <v>0.01</v>
-      </c>
-      <c r="N84">
-        <v>0.01</v>
-      </c>
-      <c r="O84">
-        <v>0.01</v>
-      </c>
-      <c r="P84">
-        <v>0.01</v>
-      </c>
-      <c r="Q84">
-        <v>0.01</v>
-      </c>
-      <c r="R84">
-        <v>0.01</v>
-      </c>
-      <c r="S84">
-        <v>0.01</v>
-      </c>
-      <c r="T84">
-        <v>0.01</v>
-      </c>
-      <c r="U84">
-        <v>0.01</v>
-      </c>
-      <c r="V84">
-        <v>0.01</v>
-      </c>
-      <c r="W84">
-        <v>0.01</v>
-      </c>
-      <c r="X84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" t="s">
-        <v>126</v>
-      </c>
       <c r="G85" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M85">
         <v>0.03</v>
@@ -6040,33 +6043,33 @@
         <v>0.03</v>
       </c>
       <c r="X85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M86">
         <v>0.03</v>
@@ -6102,33 +6105,33 @@
         <v>0.03</v>
       </c>
       <c r="X86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M87">
         <v>0.03</v>
@@ -6164,33 +6167,33 @@
         <v>0.03</v>
       </c>
       <c r="X87" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M88">
         <v>0.03</v>
@@ -6226,69 +6229,7 @@
         <v>0.03</v>
       </c>
       <c r="X88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" t="s">
-        <v>125</v>
-      </c>
-      <c r="E89" t="s">
-        <v>118</v>
-      </c>
-      <c r="F89" t="s">
-        <v>126</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="L89" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89">
-        <v>0.03</v>
-      </c>
-      <c r="N89">
-        <v>0.03</v>
-      </c>
-      <c r="O89">
-        <v>0.03</v>
-      </c>
-      <c r="P89">
-        <v>0.03</v>
-      </c>
-      <c r="Q89">
-        <v>0.03</v>
-      </c>
-      <c r="R89">
-        <v>0.03</v>
-      </c>
-      <c r="S89">
-        <v>0.03</v>
-      </c>
-      <c r="T89">
-        <v>0.03</v>
-      </c>
-      <c r="U89">
-        <v>0.03</v>
-      </c>
-      <c r="V89">
-        <v>0.03</v>
-      </c>
-      <c r="W89">
-        <v>0.03</v>
-      </c>
-      <c r="X89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
